--- a/data/trans_orig/MCS12_SP_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE4B1D4-BA8D-42A3-B9DD-F147947A54B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D081A9-0A3C-4BF5-BE6A-694D5B931E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04F690DF-FF78-4F15-A14F-60EEBF4FBE59}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D119D855-8515-47F0-8225-88BEAE722D59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="644">
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,22 +83,22 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,22 +113,22 @@
     <t>65,21%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1729 +137,1840 @@
     <t>Cadiz</t>
   </si>
   <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
     <t>54,79%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>45,21%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>53,8%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4BA749-77EF-434A-8047-B659C1A3D2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8620A0-63EE-4295-A7D0-2F3C50540ED9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2404,10 +2515,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7">
-        <v>132698</v>
+        <v>136526</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2419,10 +2530,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N4" s="7">
-        <v>244981</v>
+        <v>248809</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2455,10 +2566,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>128140</v>
+        <v>124312</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2470,10 +2581,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N5" s="7">
-        <v>288867</v>
+        <v>285039</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2544,10 +2655,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D7" s="7">
-        <v>270140</v>
+        <v>274983</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2559,10 +2670,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I7" s="7">
-        <v>337236</v>
+        <v>344274</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2574,10 +2685,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="N7" s="7">
-        <v>607377</v>
+        <v>619257</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2595,10 +2706,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D8" s="7">
-        <v>222935</v>
+        <v>218092</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2610,10 +2721,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I8" s="7">
-        <v>166713</v>
+        <v>159675</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2625,10 +2736,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="N8" s="7">
-        <v>389647</v>
+        <v>377767</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2699,10 +2810,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>80791</v>
+        <v>86084</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2714,10 +2825,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I10" s="7">
-        <v>134375</v>
+        <v>137407</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2729,10 +2840,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N10" s="7">
-        <v>215166</v>
+        <v>223491</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2750,10 +2861,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>238055</v>
+        <v>232762</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2765,10 +2876,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>201037</v>
+        <v>198005</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2780,10 +2891,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N11" s="7">
-        <v>439092</v>
+        <v>430767</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2854,10 +2965,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>145757</v>
+        <v>149473</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2869,10 +2980,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>180734</v>
+        <v>187071</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2884,10 +2995,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N13" s="7">
-        <v>326492</v>
+        <v>336545</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2905,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D14" s="7">
-        <v>212914</v>
+        <v>209198</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2920,10 +3031,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I14" s="7">
-        <v>190722</v>
+        <v>184385</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2935,10 +3046,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>403635</v>
+        <v>393582</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -3009,10 +3120,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>96629</v>
+        <v>97593</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -3039,10 +3150,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N16" s="7">
-        <v>221087</v>
+        <v>222051</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -3060,10 +3171,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>106679</v>
+        <v>105715</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3090,10 +3201,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N17" s="7">
-        <v>189889</v>
+        <v>188925</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -3164,10 +3275,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7">
-        <v>88817</v>
+        <v>92392</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3179,10 +3290,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I19" s="7">
-        <v>126370</v>
+        <v>129450</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -3194,10 +3305,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N19" s="7">
-        <v>215187</v>
+        <v>221842</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -3215,10 +3326,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D20" s="7">
-        <v>181994</v>
+        <v>178419</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -3230,10 +3341,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I20" s="7">
-        <v>151774</v>
+        <v>148694</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -3245,10 +3356,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N20" s="7">
-        <v>333768</v>
+        <v>327113</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -3319,10 +3430,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7">
-        <v>212816</v>
+        <v>216567</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -3334,10 +3445,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I22" s="7">
-        <v>303213</v>
+        <v>312135</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -3349,10 +3460,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="N22" s="7">
-        <v>516029</v>
+        <v>528702</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -3370,10 +3481,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D23" s="7">
-        <v>402211</v>
+        <v>398460</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -3385,10 +3496,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I23" s="7">
-        <v>335006</v>
+        <v>326084</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -3400,10 +3511,10 @@
         <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="N23" s="7">
-        <v>737217</v>
+        <v>724544</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -3474,49 +3585,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D25" s="7">
-        <v>382203</v>
+        <v>386737</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>433</v>
+      </c>
+      <c r="I25" s="7">
+        <v>459577</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="7">
-        <v>431</v>
-      </c>
-      <c r="I25" s="7">
-        <v>457546</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>815</v>
+      </c>
+      <c r="N25" s="7">
+        <v>846314</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="7">
-        <v>808</v>
-      </c>
-      <c r="N25" s="7">
-        <v>839749</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,49 +3636,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D26" s="7">
-        <v>361592</v>
+        <v>357058</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>312</v>
+      </c>
+      <c r="I26" s="7">
+        <v>323934</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="7">
-        <v>314</v>
-      </c>
-      <c r="I26" s="7">
-        <v>325965</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>666</v>
+      </c>
+      <c r="N26" s="7">
+        <v>680992</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="7">
-        <v>673</v>
-      </c>
-      <c r="N26" s="7">
-        <v>687557</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,49 +3740,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="D28" s="7">
-        <v>1389438</v>
+        <v>1416113</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>1782</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1830898</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="7">
-        <v>1749</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1796632</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>3164</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3247011</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M28" s="7">
-        <v>3105</v>
-      </c>
-      <c r="N28" s="7">
-        <v>3186069</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3791,13 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1858</v>
+        <v>1832</v>
       </c>
       <c r="D29" s="7">
-        <v>1887106</v>
+        <v>1860430</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>171</v>
@@ -3695,10 +3806,10 @@
         <v>172</v>
       </c>
       <c r="H29" s="7">
-        <v>1548</v>
+        <v>1515</v>
       </c>
       <c r="I29" s="7">
-        <v>1582566</v>
+        <v>1548299</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>173</v>
@@ -3710,19 +3821,19 @@
         <v>175</v>
       </c>
       <c r="M29" s="7">
-        <v>3406</v>
+        <v>3347</v>
       </c>
       <c r="N29" s="7">
-        <v>3469671</v>
+        <v>3408730</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3845,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3749,7 +3860,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3764,7 +3875,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9264C0AC-FA7E-4A34-B3D8-F5092DB35CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267964E3-9B9F-4C38-A657-253BEABD6EEC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,43 +4031,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="D4" s="7">
+        <v>165148</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>193</v>
+      </c>
+      <c r="I4" s="7">
+        <v>214959</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>351</v>
+      </c>
+      <c r="N4" s="7">
+        <v>380108</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,43 +4082,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D5" s="7">
+        <v>129590</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="I5" s="7">
+        <v>72286</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="N5" s="7">
+        <v>201875</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,43 +4133,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,49 +4186,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7">
-        <v>124635</v>
+        <v>127797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I7" s="7">
-        <v>211120</v>
+        <v>217092</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="N7" s="7">
-        <v>335755</v>
+        <v>344889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,49 +4237,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>380892</v>
+        <v>377730</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I8" s="7">
-        <v>312645</v>
+        <v>306673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N8" s="7">
-        <v>693537</v>
+        <v>684403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,49 +4341,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D10" s="7">
-        <v>137537</v>
+        <v>159054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7">
-        <v>189150</v>
+        <v>226204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="N10" s="7">
-        <v>326687</v>
+        <v>385258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,49 +4392,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>186509</v>
+        <v>164992</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>151870</v>
+        <v>114816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="N11" s="7">
-        <v>338379</v>
+        <v>279808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,49 +4496,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>387296</v>
+        <v>241064</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="H13" s="7">
-        <v>455</v>
+        <v>278</v>
       </c>
       <c r="I13" s="7">
-        <v>488314</v>
+        <v>291215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>820</v>
+        <v>502</v>
       </c>
       <c r="N13" s="7">
-        <v>875610</v>
+        <v>532280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4547,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>281424</v>
+        <v>132918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="I14" s="7">
-        <v>187882</v>
+        <v>97736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>433</v>
+        <v>213</v>
       </c>
       <c r="N14" s="7">
-        <v>469306</v>
+        <v>230653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4484,10 +4613,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4499,10 +4628,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4522,49 +4651,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>74852</v>
+        <v>77923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7">
-        <v>108742</v>
+        <v>110704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>183594</v>
+        <v>188627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,49 +4702,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7">
-        <v>137766</v>
+        <v>134695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
-        <v>110849</v>
+        <v>108887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>248615</v>
+        <v>243582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,49 +4806,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7">
-        <v>132302</v>
+        <v>148695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="I19" s="7">
-        <v>153976</v>
+        <v>177150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="N19" s="7">
-        <v>286278</v>
+        <v>325845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,49 +4857,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>141679</v>
+        <v>125286</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="I20" s="7">
-        <v>126055</v>
+        <v>102881</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="N20" s="7">
-        <v>267734</v>
+        <v>228167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,49 +4961,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="D22" s="7">
-        <v>337406</v>
+        <v>365297</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="I22" s="7">
-        <v>408254</v>
+        <v>452857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="N22" s="7">
-        <v>745660</v>
+        <v>818154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,49 +5012,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>325382</v>
+        <v>297491</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="I23" s="7">
-        <v>285599</v>
+        <v>240996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
-        <v>570</v>
+        <v>504</v>
       </c>
       <c r="N23" s="7">
-        <v>610981</v>
+        <v>538487</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,49 +5116,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D25" s="7">
-        <v>385035</v>
+        <v>394215</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="I25" s="7">
-        <v>496684</v>
+        <v>511141</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="N25" s="7">
-        <v>881719</v>
+        <v>905355</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,49 +5167,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D26" s="7">
-        <v>394063</v>
+        <v>384883</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I26" s="7">
-        <v>327169</v>
+        <v>312712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="N26" s="7">
-        <v>721232</v>
+        <v>697596</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,49 +5271,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1473</v>
+        <v>1569</v>
       </c>
       <c r="D28" s="7">
-        <v>1579063</v>
+        <v>1679193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
-        <v>1905</v>
+        <v>2038</v>
       </c>
       <c r="I28" s="7">
-        <v>2056241</v>
+        <v>2201324</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
-        <v>3378</v>
+        <v>3607</v>
       </c>
       <c r="N28" s="7">
-        <v>3635304</v>
+        <v>3880516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,49 +5322,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1736</v>
+        <v>1640</v>
       </c>
       <c r="D29" s="7">
-        <v>1847716</v>
+        <v>1747586</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
-        <v>1393</v>
+        <v>1260</v>
       </c>
       <c r="I29" s="7">
-        <v>1502068</v>
+        <v>1356985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
-        <v>3129</v>
+        <v>2900</v>
       </c>
       <c r="N29" s="7">
-        <v>3349784</v>
+        <v>3104572</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26171B59-8B47-4FDB-99A8-9FAAF7E6045A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17732F-5365-4E88-8A39-67837C8DAF14}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,49 +5562,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D4" s="7">
-        <v>160738</v>
+        <v>164971</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I4" s="7">
-        <v>187309</v>
+        <v>193828</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="N4" s="7">
-        <v>348048</v>
+        <v>358799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,49 +5613,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>133023</v>
+        <v>128790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>101394</v>
+        <v>94875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="N5" s="7">
-        <v>234416</v>
+        <v>223665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,49 +5717,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>101567</v>
+        <v>105959</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>147172</v>
+        <v>151391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N7" s="7">
-        <v>248740</v>
+        <v>257350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,49 +5768,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D8" s="7">
-        <v>401008</v>
+        <v>396616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>375912</v>
+        <v>371693</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="N8" s="7">
-        <v>776919</v>
+        <v>768309</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,49 +5872,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>143852</v>
+        <v>155616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>200852</v>
+        <v>205655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="N10" s="7">
-        <v>344705</v>
+        <v>361271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,49 +5923,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>174713</v>
+        <v>162949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>135457</v>
+        <v>130654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="N11" s="7">
-        <v>310169</v>
+        <v>293603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,49 +6027,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D13" s="7">
-        <v>155229</v>
+        <v>163330</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>201017</v>
+        <v>209846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="N13" s="7">
-        <v>356246</v>
+        <v>373177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,49 +6078,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>214735</v>
+        <v>206634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
+        <v>165</v>
+      </c>
+      <c r="I14" s="7">
+        <v>177437</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="7">
-        <v>186266</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="N14" s="7">
-        <v>401001</v>
+        <v>384070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,49 +6182,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D16" s="7">
-        <v>179682</v>
+        <v>183218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" s="7">
+        <v>196</v>
+      </c>
+      <c r="I16" s="7">
+        <v>191996</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M16" s="7">
         <v>379</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H16" s="7">
-        <v>195</v>
-      </c>
-      <c r="I16" s="7">
-        <v>191109</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M16" s="7">
-        <v>375</v>
-      </c>
       <c r="N16" s="7">
-        <v>370791</v>
+        <v>375215</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,49 +6233,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>31539</v>
+        <v>28003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>27478</v>
+        <v>26591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N17" s="7">
-        <v>59017</v>
+        <v>54593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,49 +6337,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>87334</v>
+        <v>91764</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I19" s="7">
-        <v>120372</v>
+        <v>124378</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N19" s="7">
-        <v>207706</v>
+        <v>216141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,49 +6388,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>175789</v>
+        <v>171359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>152743</v>
+        <v>148737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N20" s="7">
-        <v>328532</v>
+        <v>320097</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,49 +6492,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D22" s="7">
-        <v>333603</v>
+        <v>347973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I22" s="7">
-        <v>389331</v>
+        <v>397217</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="N22" s="7">
-        <v>722935</v>
+        <v>745190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,49 +6543,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D23" s="7">
-        <v>322955</v>
+        <v>308585</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>301963</v>
+        <v>294077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="N23" s="7">
-        <v>624917</v>
+        <v>602662</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,49 +6647,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D25" s="7">
-        <v>406132</v>
+        <v>421599</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="H25" s="7">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="I25" s="7">
-        <v>443980</v>
+        <v>469545</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="N25" s="7">
-        <v>850112</v>
+        <v>891144</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +6698,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D26" s="7">
-        <v>372451</v>
+        <v>356984</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H26" s="7">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="I26" s="7">
-        <v>382187</v>
+        <v>356622</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
-        <v>707</v>
+        <v>668</v>
       </c>
       <c r="N26" s="7">
-        <v>754638</v>
+        <v>713606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,49 +6802,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1501</v>
+        <v>1562</v>
       </c>
       <c r="D28" s="7">
-        <v>1568138</v>
+        <v>1634431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
-        <v>1769</v>
+        <v>1829</v>
       </c>
       <c r="I28" s="7">
-        <v>1881144</v>
+        <v>1943857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
-        <v>3270</v>
+        <v>3391</v>
       </c>
       <c r="N28" s="7">
-        <v>3449282</v>
+        <v>3578287</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>265</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +6853,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1730</v>
+        <v>1669</v>
       </c>
       <c r="D29" s="7">
-        <v>1826212</v>
+        <v>1759919</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>73</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="H29" s="7">
-        <v>1569</v>
+        <v>1509</v>
       </c>
       <c r="I29" s="7">
-        <v>1663398</v>
+        <v>1600685</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="M29" s="7">
-        <v>3299</v>
+        <v>3178</v>
       </c>
       <c r="N29" s="7">
-        <v>3489610</v>
+        <v>3360605</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA18AF0-3EA6-4DBD-B312-E86D4FFA2069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E81616-9E65-4302-89BF-EA3028689DF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6992,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6964,49 +7093,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>84733</v>
+        <v>104871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="H4" s="7">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I4" s="7">
-        <v>92822</v>
+        <v>102926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="M4" s="7">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="N4" s="7">
-        <v>177555</v>
+        <v>207797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,49 +7144,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D5" s="7">
-        <v>175565</v>
+        <v>206572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I5" s="7">
-        <v>178581</v>
+        <v>186709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="N5" s="7">
-        <v>354145</v>
+        <v>393280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,7 +7198,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7084,7 +7213,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7099,7 +7228,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7122,46 +7251,46 @@
         <v>109</v>
       </c>
       <c r="D7" s="7">
-        <v>144276</v>
+        <v>142847</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I7" s="7">
-        <v>204546</v>
+        <v>194193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>513</v>
       </c>
       <c r="M7" s="7">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N7" s="7">
-        <v>348822</v>
+        <v>337040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,46 +7302,46 @@
         <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>374094</v>
+        <v>374672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="H8" s="7">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I8" s="7">
-        <v>348481</v>
+        <v>319384</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>521</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="M8" s="7">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="N8" s="7">
-        <v>722575</v>
+        <v>694056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7353,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518370</v>
+        <v>517519</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7239,7 +7368,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553027</v>
+        <v>513577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7254,7 +7383,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071397</v>
+        <v>1031096</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7274,49 +7403,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>85051</v>
+        <v>83520</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I10" s="7">
-        <v>138691</v>
+        <v>129422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N10" s="7">
-        <v>223742</v>
+        <v>212942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,49 +7454,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>235180</v>
+        <v>230557</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>229183</v>
+        <v>214683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="M11" s="7">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N11" s="7">
-        <v>464363</v>
+        <v>445240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,7 +7508,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320231</v>
+        <v>314077</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7394,7 +7523,7 @@
         <v>529</v>
       </c>
       <c r="I12" s="7">
-        <v>367874</v>
+        <v>344105</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7409,7 +7538,7 @@
         <v>887</v>
       </c>
       <c r="N12" s="7">
-        <v>688105</v>
+        <v>658182</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7429,49 +7558,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>97238</v>
+        <v>98340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="H13" s="7">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I13" s="7">
-        <v>176526</v>
+        <v>224166</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="M13" s="7">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="N13" s="7">
-        <v>273765</v>
+        <v>322506</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,49 +7609,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>218345</v>
+        <v>207844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H14" s="7">
+        <v>337</v>
+      </c>
+      <c r="I14" s="7">
+        <v>246313</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M14" s="7">
         <v>525</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H14" s="7">
-        <v>346</v>
-      </c>
-      <c r="I14" s="7">
-        <v>246441</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="M14" s="7">
-        <v>539</v>
-      </c>
       <c r="N14" s="7">
-        <v>464785</v>
+        <v>454157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,7 +7663,7 @@
         <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>315583</v>
+        <v>306184</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7549,7 +7678,7 @@
         <v>588</v>
       </c>
       <c r="I15" s="7">
-        <v>422967</v>
+        <v>470479</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7564,7 +7693,7 @@
         <v>874</v>
       </c>
       <c r="N15" s="7">
-        <v>738550</v>
+        <v>776663</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7584,49 +7713,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D16" s="7">
-        <v>143338</v>
+        <v>136093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="I16" s="7">
-        <v>187450</v>
+        <v>172816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="M16" s="7">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="N16" s="7">
-        <v>330788</v>
+        <v>308909</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,49 +7764,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>52832</v>
+        <v>42146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>42236</v>
+        <v>33831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="N17" s="7">
-        <v>95068</v>
+        <v>75977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,7 +7818,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196170</v>
+        <v>178239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7704,7 +7833,7 @@
         <v>487</v>
       </c>
       <c r="I18" s="7">
-        <v>229686</v>
+        <v>206647</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7719,7 +7848,7 @@
         <v>765</v>
       </c>
       <c r="N18" s="7">
-        <v>425856</v>
+        <v>384886</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7739,49 +7868,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7">
-        <v>93903</v>
+        <v>92270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I19" s="7">
-        <v>103256</v>
+        <v>96734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="M19" s="7">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>197159</v>
+        <v>189004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>585</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,49 +7919,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <v>182824</v>
+        <v>176894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="H20" s="7">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7">
-        <v>172366</v>
+        <v>160322</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N20" s="7">
-        <v>355190</v>
+        <v>337216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +7973,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276727</v>
+        <v>269164</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7859,7 +7988,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7874,7 +8003,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552349</v>
+        <v>526220</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7894,49 +8023,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D22" s="7">
-        <v>317394</v>
+        <v>324896</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="H22" s="7">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="I22" s="7">
-        <v>533279</v>
+        <v>611516</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="M22" s="7">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="N22" s="7">
-        <v>850673</v>
+        <v>936412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,49 +8074,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>305753</v>
+        <v>295005</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="H23" s="7">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="I23" s="7">
-        <v>268327</v>
+        <v>235348</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="M23" s="7">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="N23" s="7">
-        <v>574080</v>
+        <v>530353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,7 +8128,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>623147</v>
+        <v>619901</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8014,7 +8143,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801606</v>
+        <v>846864</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8029,7 +8158,7 @@
         <v>1550</v>
       </c>
       <c r="N24" s="7">
-        <v>1424753</v>
+        <v>1466765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8049,49 +8178,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="D25" s="7">
-        <v>354876</v>
+        <v>347708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="I25" s="7">
-        <v>461884</v>
+        <v>428656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="M25" s="7">
-        <v>986</v>
+        <v>1106</v>
       </c>
       <c r="N25" s="7">
-        <v>816759</v>
+        <v>776364</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>618</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,49 +8229,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="D26" s="7">
-        <v>502761</v>
+        <v>579476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="H26" s="7">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="I26" s="7">
-        <v>403502</v>
+        <v>286585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>590</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="M26" s="7">
-        <v>832</v>
+        <v>712</v>
       </c>
       <c r="N26" s="7">
-        <v>906264</v>
+        <v>866061</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,7 +8283,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857637</v>
+        <v>927184</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8169,7 +8298,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>865386</v>
+        <v>715241</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8184,7 +8313,7 @@
         <v>1818</v>
       </c>
       <c r="N27" s="7">
-        <v>1723023</v>
+        <v>1642425</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8204,49 +8333,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1435</v>
+        <v>1520</v>
       </c>
       <c r="D28" s="7">
-        <v>1320809</v>
+        <v>1330544</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="H28" s="7">
-        <v>2715</v>
+        <v>2833</v>
       </c>
       <c r="I28" s="7">
-        <v>1898454</v>
+        <v>1960429</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>632</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>599</v>
       </c>
       <c r="M28" s="7">
-        <v>4150</v>
+        <v>4353</v>
       </c>
       <c r="N28" s="7">
-        <v>3219263</v>
+        <v>3290973</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>633</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,49 +8384,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1923</v>
+        <v>1838</v>
       </c>
       <c r="D29" s="7">
-        <v>2047353</v>
+        <v>2113167</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="H29" s="7">
-        <v>2616</v>
+        <v>2498</v>
       </c>
       <c r="I29" s="7">
-        <v>1889118</v>
+        <v>1683174</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>604</v>
+        <v>639</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
-        <v>4539</v>
+        <v>4336</v>
       </c>
       <c r="N29" s="7">
-        <v>3936471</v>
+        <v>3796341</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>641</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>139</v>
+        <v>642</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,7 +8438,7 @@
         <v>3358</v>
       </c>
       <c r="D30" s="7">
-        <v>3368162</v>
+        <v>3443711</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8324,7 +8453,7 @@
         <v>5331</v>
       </c>
       <c r="I30" s="7">
-        <v>3787572</v>
+        <v>3643603</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8339,7 +8468,7 @@
         <v>8689</v>
       </c>
       <c r="N30" s="7">
-        <v>7155734</v>
+        <v>7087314</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
